--- a/data/trans_orig/ip24_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA22E165-FE8B-46CE-88D3-9E8D56D3DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B1DF9A-B3E3-4073-A4D1-7529A149D183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83DA6B0C-0BAB-4F55-AB40-B5DAB27F3299}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A172E0E-5768-4117-8D4A-4DAAAE86EE08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="235">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre / solo 2023 en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
@@ -113,637 +113,631 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1158,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AD3A76-ADAC-494F-B85F-CABC2E7F4CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A995B0B-BC6D-4EC7-84FD-4AC3D9F705E8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2037,13 +2031,13 @@
         <v>54474</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2052,13 +2046,13 @@
         <v>33380</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -2067,13 +2061,13 @@
         <v>87854</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2082,13 @@
         <v>127228</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>114</v>
@@ -2103,13 +2097,13 @@
         <v>82700</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -2118,13 +2112,13 @@
         <v>209929</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2133,13 @@
         <v>219905</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>324</v>
@@ -2154,13 +2148,13 @@
         <v>228945</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>609</v>
@@ -2169,13 +2163,13 @@
         <v>448850</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2184,13 @@
         <v>61676</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -2205,13 +2199,13 @@
         <v>72505</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -2220,13 +2214,13 @@
         <v>134181</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2235,13 @@
         <v>18655</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2256,13 +2250,13 @@
         <v>17975</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -2271,13 +2265,13 @@
         <v>36630</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,7 +2327,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2345,13 +2339,13 @@
         <v>2401</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2360,10 +2354,10 @@
         <v>2424</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>24</v>
@@ -2375,13 +2369,13 @@
         <v>4825</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2390,13 @@
         <v>34780</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -2411,13 +2405,13 @@
         <v>19892</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>80</v>
@@ -2426,13 +2420,13 @@
         <v>54672</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2441,13 @@
         <v>45173</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H27" s="7">
         <v>59</v>
@@ -2462,13 +2456,13 @@
         <v>40249</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M27" s="7">
         <v>117</v>
@@ -2477,13 +2471,13 @@
         <v>85422</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2492,13 @@
         <v>64776</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -2513,13 +2507,13 @@
         <v>64336</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -2528,13 +2522,13 @@
         <v>129112</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2543,13 @@
         <v>20901</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -2564,13 +2558,13 @@
         <v>20224</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -2579,13 +2573,13 @@
         <v>41125</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2594,13 @@
         <v>5819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2615,13 +2609,13 @@
         <v>4243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -2630,13 +2624,13 @@
         <v>10062</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2698,13 @@
         <v>12594</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -2719,13 +2713,13 @@
         <v>14964</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -2734,13 +2728,13 @@
         <v>27558</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2749,13 @@
         <v>93301</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H33" s="7">
         <v>89</v>
@@ -2770,13 +2764,13 @@
         <v>55857</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>213</v>
@@ -2785,13 +2779,13 @@
         <v>149158</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2800,13 @@
         <v>178988</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>183</v>
@@ -2821,13 +2815,13 @@
         <v>131469</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
@@ -2836,13 +2830,13 @@
         <v>310457</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2851,13 @@
         <v>317578</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H35" s="7">
         <v>456</v>
@@ -2872,13 +2866,13 @@
         <v>321776</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>873</v>
@@ -2887,13 +2881,13 @@
         <v>639355</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2902,13 @@
         <v>92200</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
@@ -2923,13 +2917,13 @@
         <v>102967</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>282</v>
@@ -2938,13 +2932,13 @@
         <v>195167</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2953,13 @@
         <v>26921</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -2974,13 +2968,13 @@
         <v>24331</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>89</v>
@@ -2989,13 +2983,13 @@
         <v>51252</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3045,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
